--- a/notebooks/evaluation_matrix.xlsx
+++ b/notebooks/evaluation_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1288 +436,2144 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>model</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_metric</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Table</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Window</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Microwave</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WashingMachine</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Kettle</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Toilet</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Toy</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Dishwasher</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Refrigerator</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Safe</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Bucket</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Door</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TrashCan</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Laptop</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Oven</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>KitchenPot</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FoldingChair</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Box</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>StorageFurniture</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Stapler</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Switch</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>flowbot</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>171</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>groundtruth</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>539</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
         <v>11</v>
       </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>51</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>44</v>
-      </c>
       <c r="L2" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
         <v>9</v>
       </c>
       <c r="T2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>756</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>248</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>traj5</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>171</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>flowbot</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>113</v>
+        <v>713</v>
       </c>
       <c r="E3" t="n">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K3" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
-        <v>31</v>
-      </c>
-      <c r="P3" t="n">
-        <v>50</v>
-      </c>
       <c r="Q3" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="S3" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T3" t="n">
         <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
-        <v>759</v>
+        <v>17</v>
       </c>
       <c r="W3" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>27</v>
+        <v>315</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>traj10</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>171</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>traj1</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>116</v>
+        <v>698</v>
       </c>
       <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>14</v>
       </c>
-      <c r="F4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>23</v>
+      </c>
+      <c r="T4" t="n">
         <v>20</v>
       </c>
-      <c r="H4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>42</v>
-      </c>
-      <c r="L4" t="n">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="U4" t="n">
+        <v>25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>19</v>
+      </c>
+      <c r="W4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
-        <v>29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>43</v>
-      </c>
-      <c r="R4" t="n">
-        <v>53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>746</v>
-      </c>
-      <c r="W4" t="n">
-        <v>29</v>
-      </c>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>302</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>traj15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>151</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>traj5</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>99</v>
+        <v>717</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F5" t="n">
+        <v>32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
         <v>14</v>
       </c>
-      <c r="G5" t="n">
-        <v>21</v>
-      </c>
-      <c r="H5" t="n">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n">
-        <v>59</v>
-      </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K5" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" t="n">
+        <v>20</v>
+      </c>
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
-        <v>30</v>
-      </c>
-      <c r="P5" t="n">
-        <v>52</v>
-      </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="S5" t="n">
+        <v>37</v>
+      </c>
+      <c r="T5" t="n">
         <v>19</v>
       </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="V5" t="n">
-        <v>760</v>
+        <v>19</v>
       </c>
       <c r="W5" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>306</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>traj20</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>168</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>traj7</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>717</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
+        <v>36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="n">
-        <v>19</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47</v>
-      </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O6" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="U6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>740</v>
+        <v>18</v>
       </c>
       <c r="W6" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>301</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>success_rate</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>flowbot</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7309941520467836</v>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>traj10</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>711</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07142857142857142</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3636363636363636</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5714285714285714</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0196078431372549</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06818181818181818</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1830985915492958</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05660377358490566</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3666666666666666</v>
+        <v>22</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1509433962264151</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3235294117647059</v>
+        <v>19</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3333333333333333</v>
+        <v>24</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1764705882352941</v>
+        <v>20</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0625</v>
+        <v>24</v>
       </c>
       <c r="V7" t="n">
-        <v>0.421957671957672</v>
+        <v>20</v>
       </c>
       <c r="W7" t="n">
-        <v>0.08571428571428572</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03846153846153846</v>
+        <v>301</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>success_rate</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>traj5</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7543859649122807</v>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>traj15</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>0.2920353982300885</v>
+        <v>710</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1666666666666667</v>
+        <v>34</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05263157894736842</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02040816326530612</v>
+        <v>15</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04878048780487805</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.125</v>
+        <v>29</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2580645161290323</v>
+        <v>22</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3255813953488372</v>
+        <v>16</v>
       </c>
       <c r="R8" t="n">
-        <v>0.07692307692307693</v>
+        <v>31</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2857142857142857</v>
+        <v>38</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07142857142857142</v>
+        <v>24</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4071146245059288</v>
+        <v>18</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02702702702702703</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03703703703703703</v>
+        <v>305</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>success_rate</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>traj10</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6900584795321637</v>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>traj20</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3017241379310345</v>
+        <v>704</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1428571428571428</v>
+        <v>45</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4666666666666667</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>0.375</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04761904761904762</v>
+        <v>14</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07142857142857142</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03508771929824561</v>
+        <v>33</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2068965517241379</v>
+        <v>21</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1363636363636364</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3488372093023256</v>
+        <v>19</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1538461538461539</v>
+        <v>35</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1</v>
+        <v>19</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08333333333333333</v>
+        <v>23</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3766756032171582</v>
+        <v>18</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03448275862068965</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>0.04</v>
+        <v>303</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>success_rate</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>traj15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4304635761589404</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>groundtruth</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8701298701298701</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04761904761904762</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1090909090909091</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.09615384615384616</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3684210526315789</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.875</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4039473684210526</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07317073170731707</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.9556451612903226</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>success_rate</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>traj20</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7559523809523809</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>flowbot</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2956521739130435</v>
+        <v>0.6507713884992987</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H11" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09302325581395349</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09375</v>
+        <v>0.6875</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="O11" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.1428571428571428</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.1219512195121951</v>
-      </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.65625</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5625</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3797297297297297</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="W11" t="n">
-        <v>0.02777777777777778</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.04</v>
+        <v>0.6698412698412698</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>norm_dist</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>flowbot</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7972977901946566</v>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>traj1</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5159632990859748</v>
+        <v>0.6962750716332379</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3919233940741029</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2309475669523838</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4731298769863916</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7327093881850877</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1216766200565845</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6100743290769443</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4703440967923494</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1666012874226421</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4208659994100644</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6522466221891938</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0.265876495286035</v>
+        <v>0.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8428962366752718</v>
+        <v>0.125</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4005943410304563</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4045314245374676</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1813013697029604</v>
+        <v>0.5</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4227698838569254</v>
+        <v>0.96</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6996451116718441</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3070743220561835</v>
+        <v>0.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1217786445219216</v>
+        <v>0.7549668874172185</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>norm_dist</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>traj5</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.8150699112482348</v>
-      </c>
       <c r="D13" t="n">
-        <v>0.5303850772357159</v>
+        <v>0.5871687587168759</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1658080185821453</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1237573559690255</v>
+        <v>0.78125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2952920436477838</v>
+        <v>0.875</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4575976888429036</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1012297886935919</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6284220932567409</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3745754035037371</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2431790821210331</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2118852732638946</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5889625865345736</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2109499123449028</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8191628738861602</v>
+        <v>0.125</v>
       </c>
       <c r="R13" t="n">
-        <v>0.449968779824733</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3361634261622669</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1648125443003271</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1845832604572763</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6875579432743633</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09248224341268033</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1306029355021182</v>
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>norm_dist</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>traj10</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7592880948489209</v>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>traj7</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5342793749440535</v>
+        <v>0.5285913528591353</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6164654621704131</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2309984645595465</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3437267334881847</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6349794363393809</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09846117455126062</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K14" t="n">
-        <v>0.670720580020133</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3303763371029745</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.02051924962417153</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3508278916477889</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5879328460222967</v>
+        <v>0.85</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2497741398082458</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8331244628925952</v>
+        <v>0.1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3675070168675867</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2853965595819264</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1970414829926529</v>
+        <v>0.6</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5159737896435348</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="V14" t="n">
-        <v>0.689054096269568</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1184885296149751</v>
+        <v>0.75</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1375824756824318</v>
+        <v>0.4617940199335548</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>norm_dist</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>traj15</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5436487651489329</v>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>traj10</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>0.6322599143643525</v>
+        <v>0.5246132208157525</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2668640772779535</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2803702108865414</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2960548841949137</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6928559707160844</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1521528538186229</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6326033697633847</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3418419380769432</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1635138364438223</v>
+        <v>0.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1728831556452079</v>
+        <v>0.2</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5287926118355759</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1581245594157523</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8365456042171384</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3584149509928079</v>
+        <v>0.625</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3566062231792038</v>
+        <v>0.375</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09706351839977886</v>
+        <v>0.35</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3292417213607434</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7024413483692825</v>
+        <v>0.55</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3665356941624998</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1408701599965533</v>
+        <v>0.4617940199335548</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>traj15</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5084507042253521</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7941176470588235</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4622950819672131</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>success_rate</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>traj20</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3977272727272727</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7105263157894737</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>norm_dist</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>groundtruth</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8489351621820268</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.87830693075879</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8524373909272379</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9368987761145345</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4629546032054747</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8184996028482618</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7392080769124014</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8852243212844296</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9243272573270407</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.9228257648853762</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9251133241676195</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9382159288099425</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.7424860511235797</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9564168092715063</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.5528452840055027</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.8968435822735004</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.9228106359024747</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.9070199018375887</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.1285741745526449</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9813811153344699</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>flowbot</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6597714080832403</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6902434969199196</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9000061330283223</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.7931539854835424</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4068895964816275</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5506885734880933</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8016715271975873</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7071346937877867</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4907891843045643</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8444472827960405</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.8639712909862206</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1935774835722717</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.5480983095122143</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3396137281125837</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.628141333059686</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.847418747279179</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.9169519886845219</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.6612288140176745</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3428406309079848</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.6259476751575035</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>traj1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6945969308855312</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5438434775730919</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8991311912456195</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9225698092176261</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6395264950233038</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5135221673874081</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8543891217420496</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8127126141906648</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7304302044402177</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6879094660291275</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6771463373017874</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8457869953131187</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2681433395084524</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6082893913580838</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.4516152563744471</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.5548050252637472</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.8570685603082078</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.8002648593441155</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.7214688974651756</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.3469891518090109</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.709425546632712</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>traj5</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6452652222557649</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7043981159986429</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7998089715722777</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8243187544046278</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.28343388280238</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.803185127850781</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8880546772144721</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7029567732040409</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.463433803131573</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.9239081697409819</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9274014945305793</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.1818783193018418</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5594978161077326</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.2839555376523868</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5552703329758757</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.7667576599246695</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.8744864145514752</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.6414119925205407</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.3036144844859711</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9587665655545435</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>traj7</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5954914424789586</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6886738407017968</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8038678002261112</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9298573745398293</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4570465652924152</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6527573019022352</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.767226291458645</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6948310947019046</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4549376000747782</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.7890859288051384</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.710463212602062</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.1852186920092282</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.003312668094079446</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2732298308771812</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5966724698156864</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.824060026162876</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.8410178529478979</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.6122798928278842</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.04178567360216101</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.5596998073577925</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>traj10</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6266840407780347</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6484943110953412</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8454064279064881</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9253952497811547</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6334856911018432</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6412582562786771</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8571426421865658</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6706415159593674</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7111453132788914</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.3966401178074072</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.75521554753856</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.6017703069460638</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.1720648915684898</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.8431468407122962</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.3595141715794606</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.5243826043375691</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.8333331903409951</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.7100666626190495</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.7693063958910032</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.6104818729409716</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.1452845539501529</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.8816224455827731</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>traj15</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5945189810939865</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.580190272824759</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8138766484769263</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9286850398969875</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5949652087349681</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5958142279159885</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9693936456686688</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7368961312821725</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6693818224592146</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4180227644470484</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.7131807627514122</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8042261406501902</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.293911476258144</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.07812579331618809</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.3251078313327679</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.5791354898927898</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.9166666253913666</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.7435547633681682</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.8110920536062641</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.6032464373592151</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.4216982177067797</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.8217004014250583</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>norm_dist</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>traj20</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.8105902167200864</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.498100367613531</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3410580456767066</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.189070453570056</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2337338482104586</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.587537241367875</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1386017940040804</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.6476194553675196</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.2503734476009714</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.1914032096925053</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.1126398196790278</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.4938867592804078</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.1624715453983852</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.6111576264420576</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.4143757577509534</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.185180121474152</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.650435484061622</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.2771292715109975</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.6410559996842452</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.08979161553996977</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.1205366357624664</v>
+      <c r="D25" t="n">
+        <v>0.5477931891355184</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6373694617438627</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7811206815954722</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8141100836652648</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4178261751576003</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5352172163717073</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9594263386286844</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7261965734281746</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.661410473661614</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2202894911190496</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5162469150732799</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8476528547106511</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2157429383260853</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.6660563568910105</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3824728943693315</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.6249220171242357</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.850101355288956</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.7015065669839228</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.7687007497611716</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.4847285881344677</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.1500216092045416</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.7950094526184351</v>
       </c>
     </row>
   </sheetData>
